--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr5_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr5_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.3709984305162537</v>
+        <v>0.37068569260043049</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.33771146683792674</v>
+        <v>0.33760881937391257</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.005354683003213968</v>
+        <v>-0.005324415232551229</v>
       </c>
       <c r="E3" s="0">
-        <v>-6.6952761687951256e-05</v>
+        <v>-7.0633128430906819e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.0010696562936662127</v>
+        <v>-0.0010370028978019478</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00027164728879143794</v>
+        <v>0.00027158222997034136</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.00010239315112937309</v>
+        <v>-0.00010133027462725939</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0015145740962236723</v>
+        <v>-0.0015190193943501169</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0019717115935651286</v>
+        <v>0.0019717119540529349</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.32599003469216653</v>
+        <v>0.32487383565018713</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0023245794665409793</v>
+        <v>-0.0026981306161300558</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00010866947324685898</v>
+        <v>0.00010830166016220857</v>
       </c>
       <c r="F4" s="0">
-        <v>1.2876203737064037e-05</v>
+        <v>1.2842249016542636e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00021675716142539376</v>
+        <v>0.00021650225963607971</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0011548171434786066</v>
+        <v>-0.0011556701473473489</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00013380242115988971</v>
+        <v>0.00013239327884249051</v>
       </c>
       <c r="K4" s="0">
-        <v>0.0010142637199824778</v>
+        <v>0.0010142658407935046</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.33643129632581364</v>
+        <v>0.33615311833588002</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0062943704284256982</v>
+        <v>0.0067549619338955289</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0071779244504722754</v>
+        <v>-0.0072014089353757181</v>
       </c>
       <c r="E5" s="0">
-        <v>-3.7169407430722281e-05</v>
+        <v>-3.2113591087062646e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>-7.1432231918976688e-05</v>
+        <v>-8.4875676702586127e-05</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.00035814593123877807</v>
+        <v>-0.00035798202084717464</v>
       </c>
       <c r="H5" s="0">
-        <v>4.6995388636638364e-06</v>
+        <v>4.3774196508508579e-06</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00075309755817268146</v>
+        <v>-0.00075242365114585707</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-3.9906565997283039e-06</v>
+        <v>-3.9904399677381797e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.41361408206280897</v>
+        <v>0.41365077652642029</v>
       </c>
       <c r="C6" s="0">
-        <v>0.032196795614309923</v>
+        <v>0.032136322593269505</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.0002051980227407631</v>
+        <v>-0.00020520978392043511</v>
       </c>
       <c r="F6" s="0">
-        <v>-4.3586124241690787e-05</v>
+        <v>-4.300639169014332e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-5.8019004369765388e-05</v>
+        <v>-5.8595097549117429e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0012980485454589627</v>
+        <v>-0.0012991789278354172</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.0027821286625495656</v>
+        <v>-0.0027821348890847974</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.37760979680823836</v>
+        <v>0.37765687934563108</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0020840033830073026</v>
+        <v>-0.0021339898911660127</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00059123226376505127</v>
+        <v>-0.00057874655384454932</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0046095883108094003</v>
+        <v>-0.0046086794070956689</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00064775705152671887</v>
+        <v>0.00064883075930355556</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00015274736289278774</v>
+        <v>0.00015238839535079794</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.002895252438846696</v>
+        <v>-0.0028952513017001524</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.21393855249476312</v>
+        <v>0.21427595711212102</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.052743997355136261</v>
+        <v>-0.05252765766497771</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-2.5960517335508842e-05</v>
+        <v>-2.5056681412530756e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00045738641174477776</v>
+        <v>-0.00045716463415004913</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>5.3467718619762914e-05</v>
+        <v>5.3565202767205512e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.0020823483934683746</v>
+        <v>0.0020797451822539932</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.0001455661921346274</v>
+        <v>-0.0001455471442038947</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.2464771662259245</v>
+        <v>0.2467482416078785</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0042138252860005193</v>
+        <v>0.0042561758954187748</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0036576357881429418</v>
+        <v>-0.0036699037898490299</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0050872715182474753</v>
+        <v>-0.0051001192315925613</v>
       </c>
       <c r="G9" s="0">
-        <v>0.00080484334078170241</v>
+        <v>0.00080057566187767288</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00015112398130392576</v>
+        <v>-0.0001500153511616265</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.00056872331169151324</v>
+        <v>-0.00056802106413573789</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.00069567517132507195</v>
+        <v>0.00069567466995315574</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.43506589970087095</v>
+        <v>0.43607381961049624</v>
       </c>
       <c r="C10" s="0">
-        <v>0.087713211068026667</v>
+        <v>0.087857667203471684</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00022404641512234632</v>
+        <v>-0.00022451145117720583</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00044822295061158572</v>
+        <v>-0.00044737780180758061</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-2.0506670217318198e-05</v>
+        <v>-2.0509517765437424e-05</v>
       </c>
       <c r="I10" s="0">
-        <v>-0.0011399863717539076</v>
+        <v>-0.0011270707570654214</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0023192039007928706</v>
+        <v>-0.002319187173705693</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0020990948354927541</v>
+        <v>0.0020990652586068415</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.35472502791523658</v>
+        <v>0.35573225478265341</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.022255723236607919</v>
+        <v>-0.022222694135920793</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0020972738904054683</v>
+        <v>0.0021030001192356871</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0035170223794214117</v>
+        <v>0.0035123932202058999</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0014877976686423311</v>
+        <v>0.0014918558862453454</v>
       </c>
       <c r="H11" s="0">
-        <v>0.00034345777517103329</v>
+        <v>0.00034196450118094282</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.0038579390622977619</v>
+        <v>-0.003877602971283626</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.0070779251831196155</v>
+        <v>0.0070779187224779272</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.28884135891056278</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.052272272985380425</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.0001522051420676436</v>
+      </c>
+      <c r="F12" s="0">
+        <v>3.1022923541733772e-05</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>2.2366590858774829e-05</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0.00061441394775764435</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.0072022362800460704</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr5_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr5_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.37068569260043049</v>
+        <v>0.37168819249268792</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.33760881937391257</v>
+        <v>0.33805782024633113</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.005324415232551229</v>
+        <v>-0.0053939199030953091</v>
       </c>
       <c r="E3" s="0">
-        <v>-7.0633128430906819e-05</v>
+        <v>-6.8631206275367651e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.0010370028978019478</v>
+        <v>-0.0010612142883641711</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00027158222997034136</v>
+        <v>0.00027134345379012967</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.00010133027462725939</v>
+        <v>-0.0001022472079515044</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0015190193943501169</v>
+        <v>-0.0015272677282641631</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0019717119540529349</v>
+        <v>0.0019717191827633429</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.32487383565018713</v>
+        <v>0.32534989766571809</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0026981306161300558</v>
+        <v>-0.0025473745243103541</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00010830166016220857</v>
+        <v>0.00010832769951307561</v>
       </c>
       <c r="F4" s="0">
-        <v>1.2842249016542636e-05</v>
+        <v>1.0921758149397546e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00021650225963607971</v>
+        <v>0.00021382754696839973</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0011556701473473489</v>
+        <v>-0.0011619276318870827</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00013239327884249051</v>
+        <v>0.00013026354731135811</v>
       </c>
       <c r="K4" s="0">
-        <v>0.0010142658407935046</v>
+        <v>0.0010142385518334684</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.33615311833588002</v>
+        <v>0.334698495517322</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0067549619338955289</v>
+        <v>0.0062814211130999675</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0072014089353757181</v>
+        <v>-0.0071832366987600984</v>
       </c>
       <c r="E5" s="0">
-        <v>-3.2113591087062646e-05</v>
+        <v>-4.1137959935292438e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>-8.4875676702586127e-05</v>
+        <v>-9.9287125976778298e-05</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.00035798202084717464</v>
+        <v>-0.00035971309294170241</v>
       </c>
       <c r="H5" s="0">
-        <v>4.3774196508508579e-06</v>
+        <v>3.9861878277753562e-06</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00075242365114585707</v>
+        <v>-0.0007517164681188508</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-3.9904399677381797e-06</v>
+        <v>-3.967969672391547e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.41365077652642029</v>
+        <v>0.41394610506188861</v>
       </c>
       <c r="C6" s="0">
-        <v>0.032136322593269505</v>
+        <v>0.032635363116067004</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.00020520978392043511</v>
+        <v>-0.00020522605702532511</v>
       </c>
       <c r="F6" s="0">
-        <v>-4.300639169014332e-05</v>
+        <v>-4.2050654569331415e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-5.8595097549117429e-05</v>
+        <v>-5.8892891752879281e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0012991789278354172</v>
+        <v>-0.0012957124417699258</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.0027821348890847974</v>
+        <v>-0.0027821515807426866</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.37765687934563108</v>
+        <v>0.37815963740684277</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0021339898911660127</v>
+        <v>-0.002157218549983758</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00057874655384454932</v>
+        <v>-0.00055788100103213562</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0046086794070956689</v>
+        <v>-0.0045777758720852175</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00064883075930355556</v>
+        <v>0.0006513720329985608</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00015238839535079794</v>
+        <v>0.00015165658429689135</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.0028952513017001524</v>
+        <v>-0.0028952548022294078</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.21427595711212102</v>
+        <v>0.21433143750744299</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.05252765766497771</v>
+        <v>-0.053172323696580551</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-2.5056681412530756e-05</v>
+        <v>-2.3826327129002155e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00045716463415004913</v>
+        <v>-0.00045705089895647862</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>5.3565202767205512e-05</v>
+        <v>5.3551322565252418e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.0020797451822539932</v>
+        <v>0.0020788596492800431</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.0001455471442038947</v>
+        <v>-0.00014556833932843904</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.2467482416078785</v>
+        <v>0.24619190577454916</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0042561758954187748</v>
+        <v>0.0041924561377679496</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0036699037898490299</v>
+        <v>-0.0036837787130640869</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0051001192315925613</v>
+        <v>-0.0051113439475959158</v>
       </c>
       <c r="G9" s="0">
-        <v>0.00080057566187767288</v>
+        <v>0.00080536444548314054</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0001500153511616265</v>
+        <v>-0.00014956634476972461</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.00056802106413573789</v>
+        <v>-0.00056789122987533388</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.00069567466995315574</v>
+        <v>0.00069568802813596564</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.43607381961049624</v>
+        <v>0.43754385655373085</v>
       </c>
       <c r="C10" s="0">
-        <v>0.087857667203471684</v>
+        <v>0.088467934426547018</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00022451145117720583</v>
+        <v>-0.00022364010809423055</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00044737780180758061</v>
+        <v>-0.00045365493066186322</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-2.0509517765437424e-05</v>
+        <v>-2.0652746263706268e-05</v>
       </c>
       <c r="I10" s="0">
-        <v>-0.0011270707570654214</v>
+        <v>-0.0011405232827771665</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.002319187173705693</v>
+        <v>-0.0022782008725494808</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0020990652586068415</v>
+        <v>0.0020990643410123411</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.35573225478265341</v>
+        <v>0.35524136550290986</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.022222694135920793</v>
+        <v>-0.022549122648981516</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0021030001192356871</v>
+        <v>0.0021121426962145465</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0035123932202058999</v>
+        <v>0.0033705334752503016</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0014918558862453454</v>
+        <v>0.0014983620004554732</v>
       </c>
       <c r="H11" s="0">
-        <v>0.00034196450118094282</v>
+        <v>0.00033869214000753641</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.003877602971283626</v>
+        <v>-0.0039069196475628705</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.0070779187224779272</v>
+        <v>0.0070779430361850304</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.28884135891056278</v>
+        <v>0.32496329310639838</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.052272272985380425</v>
+        <v>-0.063032296439369806</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0.0001522051420676436</v>
+        <v>0.00016544977831858457</v>
       </c>
       <c r="F12" s="0">
-        <v>3.1022923541733772e-05</v>
+        <v>0.0034955063028319828</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>2.2366590858774829e-05</v>
+        <v>0.0016430119751358302</v>
       </c>
       <c r="I12" s="0">
-        <v>0.00061441394775764435</v>
+        <v>0.0079323446116862512</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.0072022362800460704</v>
+        <v>-0.0073311461829777547</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.23815418696473886</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.045213765064497001</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.001304270714269963</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.016966214930374816</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.0010347508457863093</v>
+      </c>
+      <c r="H13" s="0">
+        <v>-0.0005193020736647887</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.00080119197808736981</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>-0.048288663204325399</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.15460869660310178</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.12944550774346239</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.00025646509701067347</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.00054621019980898207</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.00032765334802454355</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.020187266654880999</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>2.4735650428708844e-05</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr5_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr5_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.37168819249268792</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.33805782024633113</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.32534989766571809</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.334698495517322</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.41394610506188861</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.37815963740684277</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.21433143750744299</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.24619190577454916</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.43754385655373085</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.35524136550290986</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.32496329310639838</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.23815418696473886</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.15460869660310178</v>
+        <v>0.22211882814279094</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.12944550774346239</v>
+        <v>-0.10567678419900163</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.00025646509701067347</v>
+        <v>-0.0003381782464446794</v>
       </c>
       <c r="F14" s="0">
-        <v>0.00054621019980898207</v>
+        <v>0.0001004881561076853</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>0.00032765334802454355</v>
+        <v>-0.0012821602684160642</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.020187266654880999</v>
+        <v>0.00019831177678492109</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>2.4735650428708844e-05</v>
+        <v>-0.0030050376455053596</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.29765737853168983</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.092885348504547424</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.00020405567616989148</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.0006219724271621064</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.009987818760495374</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>0.035228008601136507</v>
       </c>
     </row>
   </sheetData>
